--- a/lista Unidades.xlsx
+++ b/lista Unidades.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E15DB9BB-6EDC-4379-B6D0-6EA82913280C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EF705B88-70A3-4A95-8633-46A0E7504105}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Compañía</t>
   </si>
@@ -100,9 +94,6 @@
     <t>GSB 3779</t>
   </si>
   <si>
-    <t>Jaime Israel Abril Moya</t>
-  </si>
-  <si>
     <t>PAB 2383</t>
   </si>
   <si>
@@ -116,12 +107,18 @@
   </si>
   <si>
     <t>Cristian David Abril Moya</t>
+  </si>
+  <si>
+    <t>Pedro Eduardo Bayas Sanchez</t>
+  </si>
+  <si>
+    <t>Eder Alberto Lopez Jimene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,18 +597,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB548988-B3F6-4BB1-9AE6-41B8E1F0547E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -808,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E7" s="10">
         <v>994216307</v>
@@ -831,13 +828,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E8" s="7">
         <v>969024932</v>
@@ -860,13 +857,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="10">
         <v>979143453</v>
@@ -889,13 +886,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7">
         <v>968334259</v>
